--- a/extends/PHPExcel/order.xlsx
+++ b/extends/PHPExcel/order.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>订单号</t>
   </si>
@@ -80,7 +80,25 @@
     <t>快递单号</t>
   </si>
   <si>
-    <t>配送信息</t>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>详细地址</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
   </si>
   <si>
     <t>支付编号</t>
@@ -132,33 +150,6 @@
   </si>
   <si>
     <t>erp</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>区</t>
-  </si>
-  <si>
-    <t>详细地址</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>           </t>
-  </si>
-  <si>
-    <t>   </t>
   </si>
 </sst>
 </file>
@@ -174,6 +165,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -228,13 +220,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -261,7 +246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,16 +259,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -303,15 +284,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL17"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="72.1877934272301"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.61971830985915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -369,175 +351,79 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="Y1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BK6" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BL11" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BL17" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AO1:AO2"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P1:P17" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P1" type="list">
       <formula1>"德邦,EMS,汇通,全峰,顺丰,申通,天天,韵达,圆通,中通"</formula1>
       <formula2>0</formula2>
     </dataValidation>
